--- a/加藤ＳＴ.xlsx
+++ b/加藤ＳＴ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\700.ドキュメント\加藤ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48780DB9-D47E-40A3-8DC7-7C001EC38B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0547EC-9EC2-4A9F-BAD9-1E1C491CD45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="939">
   <si>
     <t>HED030B001_パロマプラス受注データ取込</t>
   </si>
@@ -2997,6 +2997,16 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ピッキングや売上の時にチェックがかかる</t>
+    <rPh sb="7" eb="9">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4087,24 +4097,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="44" fillId="32" borderId="0" xfId="108" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4117,7 +4110,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="109">
     <cellStyle name="20% - アクセント 1 2" xfId="5" xr:uid="{C5953870-9A7F-4336-AD54-F58E57A4BE5A}"/>
@@ -11205,8 +11215,8 @@
   </sheetPr>
   <dimension ref="A2:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -11814,46 +11824,46 @@
       </c>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="C94" s="45" t="s">
+      <c r="C94" s="35" t="s">
         <v>934</v>
       </c>
-      <c r="D94" s="45" t="s">
+      <c r="D94" s="35" t="s">
         <v>935</v>
       </c>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45" t="s">
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35" t="s">
         <v>935</v>
       </c>
-      <c r="H94" s="45" t="s">
+      <c r="H94" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="I94" s="45" t="s">
+      <c r="I94" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="J94" s="45" t="s">
+      <c r="J94" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="K94" s="45" t="s">
+      <c r="K94" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="L94" s="45" t="s">
+      <c r="L94" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="M94" s="45"/>
-      <c r="N94" s="45" t="s">
+      <c r="M94" s="35"/>
+      <c r="N94" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="O94" s="45" t="s">
+      <c r="O94" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="P94" s="45" t="s">
+      <c r="P94" s="35" t="s">
         <v>305</v>
       </c>
     </row>
@@ -11911,43 +11921,43 @@
       <c r="A96" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45" t="s">
+      <c r="C96" s="35"/>
+      <c r="D96" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="E96" s="45" t="s">
+      <c r="E96" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="F96" s="45" t="s">
+      <c r="F96" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45" t="s">
+      <c r="G96" s="35"/>
+      <c r="H96" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45" t="s">
+      <c r="I96" s="35"/>
+      <c r="J96" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="K96" s="45" t="s">
+      <c r="K96" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="L96" s="45" t="s">
+      <c r="L96" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="M96" s="45" t="s">
+      <c r="M96" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="N96" s="45" t="s">
+      <c r="N96" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="O96" s="45" t="s">
+      <c r="O96" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="P96" s="45" t="s">
+      <c r="P96" s="35" t="s">
         <v>452</v>
       </c>
     </row>
@@ -12002,44 +12012,44 @@
       </c>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="C98" s="45" t="s">
+      <c r="C98" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45" t="s">
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="G98" s="45" t="s">
+      <c r="G98" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="H98" s="45" t="s">
+      <c r="H98" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="I98" s="45" t="s">
+      <c r="I98" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="J98" s="45" t="s">
+      <c r="J98" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="K98" s="45" t="s">
+      <c r="K98" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="L98" s="45" t="s">
+      <c r="L98" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="M98" s="45"/>
-      <c r="N98" s="45"/>
-      <c r="O98" s="45" t="s">
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="P98" s="45" t="s">
+      <c r="P98" s="35" t="s">
         <v>305</v>
       </c>
     </row>
@@ -12094,46 +12104,46 @@
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="45" t="s">
+      <c r="A100" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="35" t="s">
         <v>936</v>
       </c>
-      <c r="C100" s="45" t="s">
+      <c r="C100" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45" t="s">
+      <c r="D100" s="35"/>
+      <c r="E100" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="F100" s="45" t="s">
+      <c r="F100" s="35" t="s">
         <v>934</v>
       </c>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45" t="s">
+      <c r="G100" s="35"/>
+      <c r="H100" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="I100" s="45" t="s">
+      <c r="I100" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="J100" s="45" t="s">
+      <c r="J100" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="K100" s="45" t="s">
+      <c r="K100" s="35" t="s">
         <v>932</v>
       </c>
-      <c r="L100" s="45" t="s">
+      <c r="L100" s="35" t="s">
         <v>933</v>
       </c>
-      <c r="M100" s="45"/>
-      <c r="N100" s="45" t="s">
+      <c r="M100" s="35"/>
+      <c r="N100" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="O100" s="45" t="s">
+      <c r="O100" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="P100" s="45" t="s">
+      <c r="P100" s="35" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12188,54 +12198,54 @@
       </c>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="45" t="s">
+      <c r="A102" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="C102" s="45" t="s">
+      <c r="C102" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="D102" s="45" t="s">
+      <c r="D102" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="E102" s="45" t="s">
+      <c r="E102" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="F102" s="45" t="s">
+      <c r="F102" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="G102" s="45" t="s">
+      <c r="G102" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="H102" s="45" t="s">
+      <c r="H102" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="I102" s="45" t="s">
+      <c r="I102" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="J102" s="45" t="s">
+      <c r="J102" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="K102" s="45" t="s">
+      <c r="K102" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="L102" s="45" t="s">
+      <c r="L102" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="M102" s="45" t="s">
+      <c r="M102" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="N102" s="45" t="s">
+      <c r="N102" s="35" t="s">
         <v>310</v>
       </c>
       <c r="O102" s="12" t="s">
         <v>934</v>
       </c>
-      <c r="P102" s="45"/>
+      <c r="P102" s="35"/>
     </row>
-    <row r="106" spans="1:16" s="45" customFormat="1"/>
+    <row r="106" spans="1:16" s="35" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13102,23 +13112,23 @@
       </c>
     </row>
     <row r="15" spans="2:96">
-      <c r="AX15" s="41" t="s">
+      <c r="AX15" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="42" t="s">
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="36"/>
+      <c r="BA15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="BB15" s="42"/>
-      <c r="BC15" s="42"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="42"/>
-      <c r="BG15" s="42"/>
-      <c r="BH15" s="42"/>
-      <c r="BI15" s="42"/>
-      <c r="BJ15" s="42"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="37"/>
+      <c r="BG15" s="37"/>
+      <c r="BH15" s="37"/>
+      <c r="BI15" s="37"/>
+      <c r="BJ15" s="37"/>
       <c r="BK15" s="32" t="s">
         <v>593</v>
       </c>
@@ -13223,23 +13233,23 @@
       </c>
     </row>
     <row r="16" spans="2:96">
-      <c r="AX16" s="43" t="s">
+      <c r="AX16" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="AY16" s="43"/>
-      <c r="AZ16" s="43"/>
-      <c r="BA16" s="44" t="s">
+      <c r="AY16" s="38"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="BB16" s="44"/>
-      <c r="BC16" s="44"/>
-      <c r="BD16" s="44"/>
-      <c r="BE16" s="44"/>
-      <c r="BF16" s="44"/>
-      <c r="BG16" s="44"/>
-      <c r="BH16" s="44"/>
-      <c r="BI16" s="44"/>
-      <c r="BJ16" s="44"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="39"/>
+      <c r="BE16" s="39"/>
+      <c r="BF16" s="39"/>
+      <c r="BG16" s="39"/>
+      <c r="BH16" s="39"/>
+      <c r="BI16" s="39"/>
+      <c r="BJ16" s="39"/>
       <c r="BK16" s="31" t="s">
         <v>6</v>
       </c>
@@ -13344,23 +13354,23 @@
       </c>
     </row>
     <row r="17" spans="39:96">
-      <c r="AX17" s="35" t="s">
+      <c r="AX17" s="40" t="s">
         <v>562</v>
       </c>
-      <c r="AY17" s="35"/>
-      <c r="AZ17" s="35"/>
-      <c r="BA17" s="36" t="s">
+      <c r="AY17" s="40"/>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="BB17" s="36"/>
-      <c r="BC17" s="36"/>
-      <c r="BD17" s="36"/>
-      <c r="BE17" s="36"/>
-      <c r="BF17" s="36"/>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="36"/>
-      <c r="BJ17" s="36"/>
+      <c r="BB17" s="41"/>
+      <c r="BC17" s="41"/>
+      <c r="BD17" s="41"/>
+      <c r="BE17" s="41"/>
+      <c r="BF17" s="41"/>
+      <c r="BG17" s="41"/>
+      <c r="BH17" s="41"/>
+      <c r="BI17" s="41"/>
+      <c r="BJ17" s="41"/>
       <c r="BK17" s="29" t="s">
         <v>594</v>
       </c>
@@ -13465,23 +13475,23 @@
       </c>
     </row>
     <row r="18" spans="39:96">
-      <c r="AX18" s="35" t="s">
+      <c r="AX18" s="40" t="s">
         <v>563</v>
       </c>
-      <c r="AY18" s="35"/>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="36" t="s">
+      <c r="AY18" s="40"/>
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="BB18" s="36"/>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="36"/>
+      <c r="BB18" s="41"/>
+      <c r="BC18" s="41"/>
+      <c r="BD18" s="41"/>
+      <c r="BE18" s="41"/>
+      <c r="BF18" s="41"/>
+      <c r="BG18" s="41"/>
+      <c r="BH18" s="41"/>
+      <c r="BI18" s="41"/>
+      <c r="BJ18" s="41"/>
       <c r="BK18" s="29" t="s">
         <v>595</v>
       </c>
@@ -13568,23 +13578,23 @@
       </c>
     </row>
     <row r="19" spans="39:96">
-      <c r="AX19" s="35" t="s">
+      <c r="AX19" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="AY19" s="35"/>
-      <c r="AZ19" s="35"/>
-      <c r="BA19" s="36" t="s">
+      <c r="AY19" s="40"/>
+      <c r="AZ19" s="40"/>
+      <c r="BA19" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="BB19" s="36"/>
-      <c r="BC19" s="36"/>
-      <c r="BD19" s="36"/>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="36"/>
-      <c r="BH19" s="36"/>
-      <c r="BI19" s="36"/>
-      <c r="BJ19" s="36"/>
+      <c r="BB19" s="41"/>
+      <c r="BC19" s="41"/>
+      <c r="BD19" s="41"/>
+      <c r="BE19" s="41"/>
+      <c r="BF19" s="41"/>
+      <c r="BG19" s="41"/>
+      <c r="BH19" s="41"/>
+      <c r="BI19" s="41"/>
+      <c r="BJ19" s="41"/>
       <c r="BK19" s="29" t="s">
         <v>593</v>
       </c>
@@ -13689,23 +13699,23 @@
       </c>
     </row>
     <row r="20" spans="39:96">
-      <c r="AX20" s="35" t="s">
+      <c r="AX20" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="AY20" s="35"/>
-      <c r="AZ20" s="35"/>
-      <c r="BA20" s="36" t="s">
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="BB20" s="36"/>
-      <c r="BC20" s="36"/>
-      <c r="BD20" s="36"/>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="36"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
-      <c r="BJ20" s="36"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="41"/>
+      <c r="BE20" s="41"/>
+      <c r="BF20" s="41"/>
+      <c r="BG20" s="41"/>
+      <c r="BH20" s="41"/>
+      <c r="BI20" s="41"/>
+      <c r="BJ20" s="41"/>
       <c r="BK20" s="29" t="s">
         <v>596</v>
       </c>
@@ -13810,23 +13820,23 @@
       </c>
     </row>
     <row r="21" spans="39:96">
-      <c r="AX21" s="35" t="s">
+      <c r="AX21" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="36" t="s">
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="BB21" s="36"/>
-      <c r="BC21" s="36"/>
-      <c r="BD21" s="36"/>
-      <c r="BE21" s="36"/>
-      <c r="BF21" s="36"/>
-      <c r="BG21" s="36"/>
-      <c r="BH21" s="36"/>
-      <c r="BI21" s="36"/>
-      <c r="BJ21" s="36"/>
+      <c r="BB21" s="41"/>
+      <c r="BC21" s="41"/>
+      <c r="BD21" s="41"/>
+      <c r="BE21" s="41"/>
+      <c r="BF21" s="41"/>
+      <c r="BG21" s="41"/>
+      <c r="BH21" s="41"/>
+      <c r="BI21" s="41"/>
+      <c r="BJ21" s="41"/>
       <c r="BK21" s="29" t="s">
         <v>597</v>
       </c>
@@ -13931,23 +13941,23 @@
       </c>
     </row>
     <row r="22" spans="39:96">
-      <c r="AX22" s="35" t="s">
+      <c r="AX22" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="36" t="s">
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="40"/>
+      <c r="BA22" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="BB22" s="36"/>
-      <c r="BC22" s="36"/>
-      <c r="BD22" s="36"/>
-      <c r="BE22" s="36"/>
-      <c r="BF22" s="36"/>
-      <c r="BG22" s="36"/>
-      <c r="BH22" s="36"/>
-      <c r="BI22" s="36"/>
-      <c r="BJ22" s="36"/>
+      <c r="BB22" s="41"/>
+      <c r="BC22" s="41"/>
+      <c r="BD22" s="41"/>
+      <c r="BE22" s="41"/>
+      <c r="BF22" s="41"/>
+      <c r="BG22" s="41"/>
+      <c r="BH22" s="41"/>
+      <c r="BI22" s="41"/>
+      <c r="BJ22" s="41"/>
       <c r="BK22" s="29" t="s">
         <v>598</v>
       </c>
@@ -14052,23 +14062,23 @@
       </c>
     </row>
     <row r="23" spans="39:96">
-      <c r="AX23" s="35" t="s">
+      <c r="AX23" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="AY23" s="35"/>
-      <c r="AZ23" s="35"/>
-      <c r="BA23" s="36" t="s">
+      <c r="AY23" s="40"/>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BB23" s="36"/>
-      <c r="BC23" s="36"/>
-      <c r="BD23" s="36"/>
-      <c r="BE23" s="36"/>
-      <c r="BF23" s="36"/>
-      <c r="BG23" s="36"/>
-      <c r="BH23" s="36"/>
-      <c r="BI23" s="36"/>
-      <c r="BJ23" s="36"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="41"/>
+      <c r="BE23" s="41"/>
+      <c r="BF23" s="41"/>
+      <c r="BG23" s="41"/>
+      <c r="BH23" s="41"/>
+      <c r="BI23" s="41"/>
+      <c r="BJ23" s="41"/>
       <c r="BK23" s="29" t="s">
         <v>599</v>
       </c>
@@ -14173,23 +14183,23 @@
       </c>
     </row>
     <row r="24" spans="39:96">
-      <c r="AX24" s="35" t="s">
+      <c r="AX24" s="40" t="s">
         <v>569</v>
       </c>
-      <c r="AY24" s="35"/>
-      <c r="AZ24" s="35"/>
-      <c r="BA24" s="36" t="s">
+      <c r="AY24" s="40"/>
+      <c r="AZ24" s="40"/>
+      <c r="BA24" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="BB24" s="36"/>
-      <c r="BC24" s="36"/>
-      <c r="BD24" s="36"/>
-      <c r="BE24" s="36"/>
-      <c r="BF24" s="36"/>
-      <c r="BG24" s="36"/>
-      <c r="BH24" s="36"/>
-      <c r="BI24" s="36"/>
-      <c r="BJ24" s="36"/>
+      <c r="BB24" s="41"/>
+      <c r="BC24" s="41"/>
+      <c r="BD24" s="41"/>
+      <c r="BE24" s="41"/>
+      <c r="BF24" s="41"/>
+      <c r="BG24" s="41"/>
+      <c r="BH24" s="41"/>
+      <c r="BI24" s="41"/>
+      <c r="BJ24" s="41"/>
       <c r="BK24" s="29" t="s">
         <v>600</v>
       </c>
@@ -14294,23 +14304,23 @@
       </c>
     </row>
     <row r="25" spans="39:96">
-      <c r="AX25" s="35" t="s">
+      <c r="AX25" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="AY25" s="35"/>
-      <c r="AZ25" s="35"/>
-      <c r="BA25" s="36" t="s">
+      <c r="AY25" s="40"/>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BB25" s="36"/>
-      <c r="BC25" s="36"/>
-      <c r="BD25" s="36"/>
-      <c r="BE25" s="36"/>
-      <c r="BF25" s="36"/>
-      <c r="BG25" s="36"/>
-      <c r="BH25" s="36"/>
-      <c r="BI25" s="36"/>
-      <c r="BJ25" s="36"/>
+      <c r="BB25" s="41"/>
+      <c r="BC25" s="41"/>
+      <c r="BD25" s="41"/>
+      <c r="BE25" s="41"/>
+      <c r="BF25" s="41"/>
+      <c r="BG25" s="41"/>
+      <c r="BH25" s="41"/>
+      <c r="BI25" s="41"/>
+      <c r="BJ25" s="41"/>
       <c r="BK25" s="29" t="s">
         <v>601</v>
       </c>
@@ -14418,23 +14428,23 @@
       <c r="AM26" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AX26" s="35" t="s">
+      <c r="AX26" s="40" t="s">
         <v>571</v>
       </c>
-      <c r="AY26" s="35"/>
-      <c r="AZ26" s="35"/>
-      <c r="BA26" s="36" t="s">
+      <c r="AY26" s="40"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="BB26" s="36"/>
-      <c r="BC26" s="36"/>
-      <c r="BD26" s="36"/>
-      <c r="BE26" s="36"/>
-      <c r="BF26" s="36"/>
-      <c r="BG26" s="36"/>
-      <c r="BH26" s="36"/>
-      <c r="BI26" s="36"/>
-      <c r="BJ26" s="36"/>
+      <c r="BB26" s="41"/>
+      <c r="BC26" s="41"/>
+      <c r="BD26" s="41"/>
+      <c r="BE26" s="41"/>
+      <c r="BF26" s="41"/>
+      <c r="BG26" s="41"/>
+      <c r="BH26" s="41"/>
+      <c r="BI26" s="41"/>
+      <c r="BJ26" s="41"/>
       <c r="BK26" s="29" t="s">
         <v>602</v>
       </c>
@@ -14539,23 +14549,23 @@
       </c>
     </row>
     <row r="27" spans="39:96">
-      <c r="AX27" s="35" t="s">
+      <c r="AX27" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="AY27" s="35"/>
-      <c r="AZ27" s="35"/>
-      <c r="BA27" s="36" t="s">
+      <c r="AY27" s="40"/>
+      <c r="AZ27" s="40"/>
+      <c r="BA27" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="BB27" s="36"/>
-      <c r="BC27" s="36"/>
-      <c r="BD27" s="36"/>
-      <c r="BE27" s="36"/>
-      <c r="BF27" s="36"/>
-      <c r="BG27" s="36"/>
-      <c r="BH27" s="36"/>
-      <c r="BI27" s="36"/>
-      <c r="BJ27" s="36"/>
+      <c r="BB27" s="41"/>
+      <c r="BC27" s="41"/>
+      <c r="BD27" s="41"/>
+      <c r="BE27" s="41"/>
+      <c r="BF27" s="41"/>
+      <c r="BG27" s="41"/>
+      <c r="BH27" s="41"/>
+      <c r="BI27" s="41"/>
+      <c r="BJ27" s="41"/>
       <c r="BK27" s="29" t="s">
         <v>603</v>
       </c>
@@ -14660,23 +14670,23 @@
       </c>
     </row>
     <row r="28" spans="39:96">
-      <c r="AX28" s="35" t="s">
+      <c r="AX28" s="40" t="s">
         <v>573</v>
       </c>
-      <c r="AY28" s="35"/>
-      <c r="AZ28" s="35"/>
-      <c r="BA28" s="36" t="s">
+      <c r="AY28" s="40"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="BB28" s="36"/>
-      <c r="BC28" s="36"/>
-      <c r="BD28" s="36"/>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="36"/>
-      <c r="BG28" s="36"/>
-      <c r="BH28" s="36"/>
-      <c r="BI28" s="36"/>
-      <c r="BJ28" s="36"/>
+      <c r="BB28" s="41"/>
+      <c r="BC28" s="41"/>
+      <c r="BD28" s="41"/>
+      <c r="BE28" s="41"/>
+      <c r="BF28" s="41"/>
+      <c r="BG28" s="41"/>
+      <c r="BH28" s="41"/>
+      <c r="BI28" s="41"/>
+      <c r="BJ28" s="41"/>
       <c r="BK28" s="29" t="s">
         <v>594</v>
       </c>
@@ -14781,23 +14791,23 @@
       </c>
     </row>
     <row r="29" spans="39:96">
-      <c r="AX29" s="35" t="s">
+      <c r="AX29" s="40" t="s">
         <v>574</v>
       </c>
-      <c r="AY29" s="35"/>
-      <c r="AZ29" s="35"/>
-      <c r="BA29" s="36" t="s">
+      <c r="AY29" s="40"/>
+      <c r="AZ29" s="40"/>
+      <c r="BA29" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="BB29" s="36"/>
-      <c r="BC29" s="36"/>
-      <c r="BD29" s="36"/>
-      <c r="BE29" s="36"/>
-      <c r="BF29" s="36"/>
-      <c r="BG29" s="36"/>
-      <c r="BH29" s="36"/>
-      <c r="BI29" s="36"/>
-      <c r="BJ29" s="36"/>
+      <c r="BB29" s="41"/>
+      <c r="BC29" s="41"/>
+      <c r="BD29" s="41"/>
+      <c r="BE29" s="41"/>
+      <c r="BF29" s="41"/>
+      <c r="BG29" s="41"/>
+      <c r="BH29" s="41"/>
+      <c r="BI29" s="41"/>
+      <c r="BJ29" s="41"/>
       <c r="BK29" s="29" t="s">
         <v>595</v>
       </c>
@@ -14884,23 +14894,23 @@
       </c>
     </row>
     <row r="30" spans="39:96">
-      <c r="AX30" s="35" t="s">
+      <c r="AX30" s="40" t="s">
         <v>575</v>
       </c>
-      <c r="AY30" s="35"/>
-      <c r="AZ30" s="35"/>
-      <c r="BA30" s="36" t="s">
+      <c r="AY30" s="40"/>
+      <c r="AZ30" s="40"/>
+      <c r="BA30" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="BB30" s="36"/>
-      <c r="BC30" s="36"/>
-      <c r="BD30" s="36"/>
-      <c r="BE30" s="36"/>
-      <c r="BF30" s="36"/>
-      <c r="BG30" s="36"/>
-      <c r="BH30" s="36"/>
-      <c r="BI30" s="36"/>
-      <c r="BJ30" s="36"/>
+      <c r="BB30" s="41"/>
+      <c r="BC30" s="41"/>
+      <c r="BD30" s="41"/>
+      <c r="BE30" s="41"/>
+      <c r="BF30" s="41"/>
+      <c r="BG30" s="41"/>
+      <c r="BH30" s="41"/>
+      <c r="BI30" s="41"/>
+      <c r="BJ30" s="41"/>
       <c r="BK30" s="29" t="s">
         <v>593</v>
       </c>
@@ -15005,23 +15015,23 @@
       </c>
     </row>
     <row r="31" spans="39:96">
-      <c r="AX31" s="35" t="s">
+      <c r="AX31" s="40" t="s">
         <v>576</v>
       </c>
-      <c r="AY31" s="35"/>
-      <c r="AZ31" s="35"/>
-      <c r="BA31" s="36" t="s">
+      <c r="AY31" s="40"/>
+      <c r="AZ31" s="40"/>
+      <c r="BA31" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="BB31" s="36"/>
-      <c r="BC31" s="36"/>
-      <c r="BD31" s="36"/>
-      <c r="BE31" s="36"/>
-      <c r="BF31" s="36"/>
-      <c r="BG31" s="36"/>
-      <c r="BH31" s="36"/>
-      <c r="BI31" s="36"/>
-      <c r="BJ31" s="36"/>
+      <c r="BB31" s="41"/>
+      <c r="BC31" s="41"/>
+      <c r="BD31" s="41"/>
+      <c r="BE31" s="41"/>
+      <c r="BF31" s="41"/>
+      <c r="BG31" s="41"/>
+      <c r="BH31" s="41"/>
+      <c r="BI31" s="41"/>
+      <c r="BJ31" s="41"/>
       <c r="BK31" s="29" t="s">
         <v>596</v>
       </c>
@@ -15126,23 +15136,23 @@
       </c>
     </row>
     <row r="32" spans="39:96">
-      <c r="AX32" s="35" t="s">
+      <c r="AX32" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="AY32" s="35"/>
-      <c r="AZ32" s="35"/>
-      <c r="BA32" s="36" t="s">
+      <c r="AY32" s="40"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="BB32" s="36"/>
-      <c r="BC32" s="36"/>
-      <c r="BD32" s="36"/>
-      <c r="BE32" s="36"/>
-      <c r="BF32" s="36"/>
-      <c r="BG32" s="36"/>
-      <c r="BH32" s="36"/>
-      <c r="BI32" s="36"/>
-      <c r="BJ32" s="36"/>
+      <c r="BB32" s="41"/>
+      <c r="BC32" s="41"/>
+      <c r="BD32" s="41"/>
+      <c r="BE32" s="41"/>
+      <c r="BF32" s="41"/>
+      <c r="BG32" s="41"/>
+      <c r="BH32" s="41"/>
+      <c r="BI32" s="41"/>
+      <c r="BJ32" s="41"/>
       <c r="BK32" s="29" t="s">
         <v>598</v>
       </c>
@@ -15247,23 +15257,23 @@
       </c>
     </row>
     <row r="33" spans="50:96">
-      <c r="AX33" s="35" t="s">
+      <c r="AX33" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="AY33" s="35"/>
-      <c r="AZ33" s="35"/>
-      <c r="BA33" s="36" t="s">
+      <c r="AY33" s="40"/>
+      <c r="AZ33" s="40"/>
+      <c r="BA33" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BB33" s="36"/>
-      <c r="BC33" s="36"/>
-      <c r="BD33" s="36"/>
-      <c r="BE33" s="36"/>
-      <c r="BF33" s="36"/>
-      <c r="BG33" s="36"/>
-      <c r="BH33" s="36"/>
-      <c r="BI33" s="36"/>
-      <c r="BJ33" s="36"/>
+      <c r="BB33" s="41"/>
+      <c r="BC33" s="41"/>
+      <c r="BD33" s="41"/>
+      <c r="BE33" s="41"/>
+      <c r="BF33" s="41"/>
+      <c r="BG33" s="41"/>
+      <c r="BH33" s="41"/>
+      <c r="BI33" s="41"/>
+      <c r="BJ33" s="41"/>
       <c r="BK33" s="29" t="s">
         <v>599</v>
       </c>
@@ -15368,23 +15378,23 @@
       </c>
     </row>
     <row r="34" spans="50:96">
-      <c r="AX34" s="35" t="s">
+      <c r="AX34" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="AY34" s="35"/>
-      <c r="AZ34" s="35"/>
-      <c r="BA34" s="36" t="s">
+      <c r="AY34" s="40"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="BB34" s="36"/>
-      <c r="BC34" s="36"/>
-      <c r="BD34" s="36"/>
-      <c r="BE34" s="36"/>
-      <c r="BF34" s="36"/>
-      <c r="BG34" s="36"/>
-      <c r="BH34" s="36"/>
-      <c r="BI34" s="36"/>
-      <c r="BJ34" s="36"/>
+      <c r="BB34" s="41"/>
+      <c r="BC34" s="41"/>
+      <c r="BD34" s="41"/>
+      <c r="BE34" s="41"/>
+      <c r="BF34" s="41"/>
+      <c r="BG34" s="41"/>
+      <c r="BH34" s="41"/>
+      <c r="BI34" s="41"/>
+      <c r="BJ34" s="41"/>
       <c r="BK34" s="29" t="s">
         <v>600</v>
       </c>
@@ -15489,23 +15499,23 @@
       </c>
     </row>
     <row r="35" spans="50:96">
-      <c r="AX35" s="35" t="s">
+      <c r="AX35" s="40" t="s">
         <v>580</v>
       </c>
-      <c r="AY35" s="35"/>
-      <c r="AZ35" s="35"/>
-      <c r="BA35" s="36" t="s">
+      <c r="AY35" s="40"/>
+      <c r="AZ35" s="40"/>
+      <c r="BA35" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BB35" s="36"/>
-      <c r="BC35" s="36"/>
-      <c r="BD35" s="36"/>
-      <c r="BE35" s="36"/>
-      <c r="BF35" s="36"/>
-      <c r="BG35" s="36"/>
-      <c r="BH35" s="36"/>
-      <c r="BI35" s="36"/>
-      <c r="BJ35" s="36"/>
+      <c r="BB35" s="41"/>
+      <c r="BC35" s="41"/>
+      <c r="BD35" s="41"/>
+      <c r="BE35" s="41"/>
+      <c r="BF35" s="41"/>
+      <c r="BG35" s="41"/>
+      <c r="BH35" s="41"/>
+      <c r="BI35" s="41"/>
+      <c r="BJ35" s="41"/>
       <c r="BK35" s="29" t="s">
         <v>601</v>
       </c>
@@ -15610,23 +15620,23 @@
       </c>
     </row>
     <row r="36" spans="50:96">
-      <c r="AX36" s="35" t="s">
+      <c r="AX36" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="35"/>
-      <c r="BA36" s="36" t="s">
+      <c r="AY36" s="40"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="BB36" s="36"/>
-      <c r="BC36" s="36"/>
-      <c r="BD36" s="36"/>
-      <c r="BE36" s="36"/>
-      <c r="BF36" s="36"/>
-      <c r="BG36" s="36"/>
-      <c r="BH36" s="36"/>
-      <c r="BI36" s="36"/>
-      <c r="BJ36" s="36"/>
+      <c r="BB36" s="41"/>
+      <c r="BC36" s="41"/>
+      <c r="BD36" s="41"/>
+      <c r="BE36" s="41"/>
+      <c r="BF36" s="41"/>
+      <c r="BG36" s="41"/>
+      <c r="BH36" s="41"/>
+      <c r="BI36" s="41"/>
+      <c r="BJ36" s="41"/>
       <c r="BK36" s="29" t="s">
         <v>602</v>
       </c>
@@ -15731,23 +15741,23 @@
       </c>
     </row>
     <row r="37" spans="50:96">
-      <c r="AX37" s="35" t="s">
+      <c r="AX37" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="35"/>
-      <c r="BA37" s="36" t="s">
+      <c r="AY37" s="40"/>
+      <c r="AZ37" s="40"/>
+      <c r="BA37" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="BB37" s="36"/>
-      <c r="BC37" s="36"/>
-      <c r="BD37" s="36"/>
-      <c r="BE37" s="36"/>
-      <c r="BF37" s="36"/>
-      <c r="BG37" s="36"/>
-      <c r="BH37" s="36"/>
-      <c r="BI37" s="36"/>
-      <c r="BJ37" s="36"/>
+      <c r="BB37" s="41"/>
+      <c r="BC37" s="41"/>
+      <c r="BD37" s="41"/>
+      <c r="BE37" s="41"/>
+      <c r="BF37" s="41"/>
+      <c r="BG37" s="41"/>
+      <c r="BH37" s="41"/>
+      <c r="BI37" s="41"/>
+      <c r="BJ37" s="41"/>
       <c r="BK37" s="29" t="s">
         <v>603</v>
       </c>
@@ -15852,23 +15862,23 @@
       </c>
     </row>
     <row r="38" spans="50:96">
-      <c r="AX38" s="39" t="s">
+      <c r="AX38" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="AY38" s="39"/>
-      <c r="AZ38" s="39"/>
-      <c r="BA38" s="40" t="s">
+      <c r="AY38" s="42"/>
+      <c r="AZ38" s="42"/>
+      <c r="BA38" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="BB38" s="40"/>
-      <c r="BC38" s="40"/>
-      <c r="BD38" s="40"/>
-      <c r="BE38" s="40"/>
-      <c r="BF38" s="40"/>
-      <c r="BG38" s="40"/>
-      <c r="BH38" s="40"/>
-      <c r="BI38" s="40"/>
-      <c r="BJ38" s="40"/>
+      <c r="BB38" s="43"/>
+      <c r="BC38" s="43"/>
+      <c r="BD38" s="43"/>
+      <c r="BE38" s="43"/>
+      <c r="BF38" s="43"/>
+      <c r="BG38" s="43"/>
+      <c r="BH38" s="43"/>
+      <c r="BI38" s="43"/>
+      <c r="BJ38" s="43"/>
       <c r="BK38" s="29" t="s">
         <v>17</v>
       </c>
@@ -15973,23 +15983,23 @@
       </c>
     </row>
     <row r="39" spans="50:96">
-      <c r="AX39" s="39" t="s">
+      <c r="AX39" s="42" t="s">
         <v>584</v>
       </c>
-      <c r="AY39" s="39"/>
-      <c r="AZ39" s="39"/>
-      <c r="BA39" s="40" t="s">
+      <c r="AY39" s="42"/>
+      <c r="AZ39" s="42"/>
+      <c r="BA39" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BB39" s="40"/>
-      <c r="BC39" s="40"/>
-      <c r="BD39" s="40"/>
-      <c r="BE39" s="40"/>
-      <c r="BF39" s="40"/>
-      <c r="BG39" s="40"/>
-      <c r="BH39" s="40"/>
-      <c r="BI39" s="40"/>
-      <c r="BJ39" s="40"/>
+      <c r="BB39" s="43"/>
+      <c r="BC39" s="43"/>
+      <c r="BD39" s="43"/>
+      <c r="BE39" s="43"/>
+      <c r="BF39" s="43"/>
+      <c r="BG39" s="43"/>
+      <c r="BH39" s="43"/>
+      <c r="BI39" s="43"/>
+      <c r="BJ39" s="43"/>
       <c r="BK39" s="29" t="s">
         <v>6</v>
       </c>
@@ -16094,23 +16104,23 @@
       </c>
     </row>
     <row r="40" spans="50:96">
-      <c r="AX40" s="39" t="s">
+      <c r="AX40" s="42" t="s">
         <v>585</v>
       </c>
-      <c r="AY40" s="39"/>
-      <c r="AZ40" s="39"/>
-      <c r="BA40" s="40" t="s">
+      <c r="AY40" s="42"/>
+      <c r="AZ40" s="42"/>
+      <c r="BA40" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="BB40" s="40"/>
-      <c r="BC40" s="40"/>
-      <c r="BD40" s="40"/>
-      <c r="BE40" s="40"/>
-      <c r="BF40" s="40"/>
-      <c r="BG40" s="40"/>
-      <c r="BH40" s="40"/>
-      <c r="BI40" s="40"/>
-      <c r="BJ40" s="40"/>
+      <c r="BB40" s="43"/>
+      <c r="BC40" s="43"/>
+      <c r="BD40" s="43"/>
+      <c r="BE40" s="43"/>
+      <c r="BF40" s="43"/>
+      <c r="BG40" s="43"/>
+      <c r="BH40" s="43"/>
+      <c r="BI40" s="43"/>
+      <c r="BJ40" s="43"/>
       <c r="BK40" s="29" t="s">
         <v>604</v>
       </c>
@@ -16215,23 +16225,23 @@
       </c>
     </row>
     <row r="41" spans="50:96">
-      <c r="AX41" s="35" t="s">
+      <c r="AX41" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="AY41" s="35"/>
-      <c r="AZ41" s="35"/>
-      <c r="BA41" s="36" t="s">
+      <c r="AY41" s="40"/>
+      <c r="AZ41" s="40"/>
+      <c r="BA41" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="BB41" s="36"/>
-      <c r="BC41" s="36"/>
-      <c r="BD41" s="36"/>
-      <c r="BE41" s="36"/>
-      <c r="BF41" s="36"/>
-      <c r="BG41" s="36"/>
-      <c r="BH41" s="36"/>
-      <c r="BI41" s="36"/>
-      <c r="BJ41" s="36"/>
+      <c r="BB41" s="41"/>
+      <c r="BC41" s="41"/>
+      <c r="BD41" s="41"/>
+      <c r="BE41" s="41"/>
+      <c r="BF41" s="41"/>
+      <c r="BG41" s="41"/>
+      <c r="BH41" s="41"/>
+      <c r="BI41" s="41"/>
+      <c r="BJ41" s="41"/>
       <c r="BK41" s="29" t="s">
         <v>605</v>
       </c>
@@ -16336,21 +16346,21 @@
       </c>
     </row>
     <row r="42" spans="50:96">
-      <c r="AX42" s="35" t="s">
+      <c r="AX42" s="40" t="s">
         <v>587</v>
       </c>
-      <c r="AY42" s="35"/>
-      <c r="AZ42" s="35"/>
-      <c r="BA42" s="36"/>
-      <c r="BB42" s="36"/>
-      <c r="BC42" s="36"/>
-      <c r="BD42" s="36"/>
-      <c r="BE42" s="36"/>
-      <c r="BF42" s="36"/>
-      <c r="BG42" s="36"/>
-      <c r="BH42" s="36"/>
-      <c r="BI42" s="36"/>
-      <c r="BJ42" s="36"/>
+      <c r="AY42" s="40"/>
+      <c r="AZ42" s="40"/>
+      <c r="BA42" s="41"/>
+      <c r="BB42" s="41"/>
+      <c r="BC42" s="41"/>
+      <c r="BD42" s="41"/>
+      <c r="BE42" s="41"/>
+      <c r="BF42" s="41"/>
+      <c r="BG42" s="41"/>
+      <c r="BH42" s="41"/>
+      <c r="BI42" s="41"/>
+      <c r="BJ42" s="41"/>
       <c r="BK42" s="29" t="s">
         <v>438</v>
       </c>
@@ -16397,23 +16407,23 @@
       </c>
     </row>
     <row r="43" spans="50:96">
-      <c r="AX43" s="35" t="s">
+      <c r="AX43" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="AY43" s="35"/>
-      <c r="AZ43" s="35"/>
-      <c r="BA43" s="36" t="s">
+      <c r="AY43" s="40"/>
+      <c r="AZ43" s="40"/>
+      <c r="BA43" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="BB43" s="36"/>
-      <c r="BC43" s="36"/>
-      <c r="BD43" s="36"/>
-      <c r="BE43" s="36"/>
-      <c r="BF43" s="36"/>
-      <c r="BG43" s="36"/>
-      <c r="BH43" s="36"/>
-      <c r="BI43" s="36"/>
-      <c r="BJ43" s="36"/>
+      <c r="BB43" s="41"/>
+      <c r="BC43" s="41"/>
+      <c r="BD43" s="41"/>
+      <c r="BE43" s="41"/>
+      <c r="BF43" s="41"/>
+      <c r="BG43" s="41"/>
+      <c r="BH43" s="41"/>
+      <c r="BI43" s="41"/>
+      <c r="BJ43" s="41"/>
       <c r="BK43" s="29" t="s">
         <v>606</v>
       </c>
@@ -16464,23 +16474,23 @@
       </c>
     </row>
     <row r="44" spans="50:96">
-      <c r="AX44" s="35" t="s">
+      <c r="AX44" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="AY44" s="35"/>
-      <c r="AZ44" s="35"/>
-      <c r="BA44" s="36" t="s">
+      <c r="AY44" s="40"/>
+      <c r="AZ44" s="40"/>
+      <c r="BA44" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BB44" s="36"/>
-      <c r="BC44" s="36"/>
-      <c r="BD44" s="36"/>
-      <c r="BE44" s="36"/>
-      <c r="BF44" s="36"/>
-      <c r="BG44" s="36"/>
-      <c r="BH44" s="36"/>
-      <c r="BI44" s="36"/>
-      <c r="BJ44" s="36"/>
+      <c r="BB44" s="41"/>
+      <c r="BC44" s="41"/>
+      <c r="BD44" s="41"/>
+      <c r="BE44" s="41"/>
+      <c r="BF44" s="41"/>
+      <c r="BG44" s="41"/>
+      <c r="BH44" s="41"/>
+      <c r="BI44" s="41"/>
+      <c r="BJ44" s="41"/>
       <c r="BK44" s="29" t="s">
         <v>607</v>
       </c>
@@ -16585,23 +16595,23 @@
       </c>
     </row>
     <row r="45" spans="50:96">
-      <c r="AX45" s="35" t="s">
+      <c r="AX45" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="AY45" s="35"/>
-      <c r="AZ45" s="35"/>
-      <c r="BA45" s="36" t="s">
+      <c r="AY45" s="40"/>
+      <c r="AZ45" s="40"/>
+      <c r="BA45" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="BB45" s="36"/>
-      <c r="BC45" s="36"/>
-      <c r="BD45" s="36"/>
-      <c r="BE45" s="36"/>
-      <c r="BF45" s="36"/>
-      <c r="BG45" s="36"/>
-      <c r="BH45" s="36"/>
-      <c r="BI45" s="36"/>
-      <c r="BJ45" s="36"/>
+      <c r="BB45" s="41"/>
+      <c r="BC45" s="41"/>
+      <c r="BD45" s="41"/>
+      <c r="BE45" s="41"/>
+      <c r="BF45" s="41"/>
+      <c r="BG45" s="41"/>
+      <c r="BH45" s="41"/>
+      <c r="BI45" s="41"/>
+      <c r="BJ45" s="41"/>
       <c r="BK45" s="29" t="s">
         <v>608</v>
       </c>
@@ -16706,23 +16716,23 @@
       </c>
     </row>
     <row r="46" spans="50:96">
-      <c r="AX46" s="35" t="s">
+      <c r="AX46" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="AY46" s="35"/>
-      <c r="AZ46" s="35"/>
-      <c r="BA46" s="36" t="s">
+      <c r="AY46" s="40"/>
+      <c r="AZ46" s="40"/>
+      <c r="BA46" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="BB46" s="36"/>
-      <c r="BC46" s="36"/>
-      <c r="BD46" s="36"/>
-      <c r="BE46" s="36"/>
-      <c r="BF46" s="36"/>
-      <c r="BG46" s="36"/>
-      <c r="BH46" s="36"/>
-      <c r="BI46" s="36"/>
-      <c r="BJ46" s="36"/>
+      <c r="BB46" s="41"/>
+      <c r="BC46" s="41"/>
+      <c r="BD46" s="41"/>
+      <c r="BE46" s="41"/>
+      <c r="BF46" s="41"/>
+      <c r="BG46" s="41"/>
+      <c r="BH46" s="41"/>
+      <c r="BI46" s="41"/>
+      <c r="BJ46" s="41"/>
       <c r="BK46" s="29" t="s">
         <v>609</v>
       </c>
@@ -16827,23 +16837,23 @@
       </c>
     </row>
     <row r="47" spans="50:96">
-      <c r="AX47" s="35" t="s">
+      <c r="AX47" s="40" t="s">
         <v>590</v>
       </c>
-      <c r="AY47" s="35"/>
-      <c r="AZ47" s="35"/>
-      <c r="BA47" s="36" t="s">
+      <c r="AY47" s="40"/>
+      <c r="AZ47" s="40"/>
+      <c r="BA47" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="BB47" s="36"/>
-      <c r="BC47" s="36"/>
-      <c r="BD47" s="36"/>
-      <c r="BE47" s="36"/>
-      <c r="BF47" s="36"/>
-      <c r="BG47" s="36"/>
-      <c r="BH47" s="36"/>
-      <c r="BI47" s="36"/>
-      <c r="BJ47" s="36"/>
+      <c r="BB47" s="41"/>
+      <c r="BC47" s="41"/>
+      <c r="BD47" s="41"/>
+      <c r="BE47" s="41"/>
+      <c r="BF47" s="41"/>
+      <c r="BG47" s="41"/>
+      <c r="BH47" s="41"/>
+      <c r="BI47" s="41"/>
+      <c r="BJ47" s="41"/>
       <c r="BK47" s="29" t="s">
         <v>610</v>
       </c>
@@ -16948,23 +16958,23 @@
       </c>
     </row>
     <row r="48" spans="50:96">
-      <c r="AX48" s="35" t="s">
+      <c r="AX48" s="40" t="s">
         <v>591</v>
       </c>
-      <c r="AY48" s="35"/>
-      <c r="AZ48" s="35"/>
-      <c r="BA48" s="36" t="s">
+      <c r="AY48" s="40"/>
+      <c r="AZ48" s="40"/>
+      <c r="BA48" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="BB48" s="36"/>
-      <c r="BC48" s="36"/>
-      <c r="BD48" s="36"/>
-      <c r="BE48" s="36"/>
-      <c r="BF48" s="36"/>
-      <c r="BG48" s="36"/>
-      <c r="BH48" s="36"/>
-      <c r="BI48" s="36"/>
-      <c r="BJ48" s="36"/>
+      <c r="BB48" s="41"/>
+      <c r="BC48" s="41"/>
+      <c r="BD48" s="41"/>
+      <c r="BE48" s="41"/>
+      <c r="BF48" s="41"/>
+      <c r="BG48" s="41"/>
+      <c r="BH48" s="41"/>
+      <c r="BI48" s="41"/>
+      <c r="BJ48" s="41"/>
       <c r="BK48" s="29" t="s">
         <v>25</v>
       </c>
@@ -17069,23 +17079,23 @@
       </c>
     </row>
     <row r="49" spans="50:96">
-      <c r="AX49" s="37" t="s">
+      <c r="AX49" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="AY49" s="37"/>
-      <c r="AZ49" s="37"/>
-      <c r="BA49" s="38" t="s">
+      <c r="AY49" s="44"/>
+      <c r="AZ49" s="44"/>
+      <c r="BA49" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="BB49" s="38"/>
-      <c r="BC49" s="38"/>
-      <c r="BD49" s="38"/>
-      <c r="BE49" s="38"/>
-      <c r="BF49" s="38"/>
-      <c r="BG49" s="38"/>
-      <c r="BH49" s="38"/>
-      <c r="BI49" s="38"/>
-      <c r="BJ49" s="38"/>
+      <c r="BB49" s="45"/>
+      <c r="BC49" s="45"/>
+      <c r="BD49" s="45"/>
+      <c r="BE49" s="45"/>
+      <c r="BF49" s="45"/>
+      <c r="BG49" s="45"/>
+      <c r="BH49" s="45"/>
+      <c r="BI49" s="45"/>
+      <c r="BJ49" s="45"/>
       <c r="BK49" s="30" t="s">
         <v>6</v>
       </c>
@@ -17191,66 +17201,6 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="BA15:BJ15"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="BA16:BJ16"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="BA17:BJ17"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="BA18:BJ18"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="BA19:BJ19"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="BA20:BJ20"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="BA21:BJ21"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="BA22:BJ22"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="BA23:BJ23"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BA24:BJ24"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="BA25:BJ25"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="BA26:BJ26"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="BA27:BJ27"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="BA28:BJ28"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BJ29"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="BA30:BJ30"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="BA31:BJ31"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BA32:BJ32"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BA33:BJ33"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="BA34:BJ34"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="BA35:BJ35"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="BA36:BJ36"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BJ37"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="BA38:BJ38"/>
-    <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="BA39:BJ39"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="BA40:BJ40"/>
-    <mergeCell ref="AX41:AZ41"/>
-    <mergeCell ref="BA41:BJ41"/>
-    <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="BA42:BJ42"/>
-    <mergeCell ref="AX43:AZ43"/>
-    <mergeCell ref="BA43:BJ43"/>
-    <mergeCell ref="AX44:AZ44"/>
-    <mergeCell ref="BA44:BJ44"/>
     <mergeCell ref="AX48:AZ48"/>
     <mergeCell ref="BA48:BJ48"/>
     <mergeCell ref="AX49:AZ49"/>
@@ -17261,6 +17211,66 @@
     <mergeCell ref="BA46:BJ46"/>
     <mergeCell ref="AX47:AZ47"/>
     <mergeCell ref="BA47:BJ47"/>
+    <mergeCell ref="AX42:AZ42"/>
+    <mergeCell ref="BA42:BJ42"/>
+    <mergeCell ref="AX43:AZ43"/>
+    <mergeCell ref="BA43:BJ43"/>
+    <mergeCell ref="AX44:AZ44"/>
+    <mergeCell ref="BA44:BJ44"/>
+    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="BA39:BJ39"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="BA40:BJ40"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="BA41:BJ41"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="BA36:BJ36"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BJ37"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BA38:BJ38"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BA33:BJ33"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="BA34:BJ34"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="BA35:BJ35"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="BA30:BJ30"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="BA31:BJ31"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BA32:BJ32"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="BA27:BJ27"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="BA28:BJ28"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BJ29"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="BA24:BJ24"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="BA25:BJ25"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="BA26:BJ26"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="BA21:BJ21"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="BA22:BJ22"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="BA23:BJ23"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="BA18:BJ18"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="BA19:BJ19"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="BA20:BJ20"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="BA15:BJ15"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="BA16:BJ16"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="BA17:BJ17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -17292,11 +17302,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="38:55">
-      <c r="AX2" s="41" t="s">
+      <c r="AX2" s="36" t="s">
         <v>920</v>
       </c>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
       <c r="BA2" s="34" t="s">
         <v>921</v>
       </c>
@@ -17308,11 +17318,11 @@
       </c>
     </row>
     <row r="3" spans="38:55">
-      <c r="AX3" s="41" t="s">
+      <c r="AX3" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
       <c r="BA3" s="32" t="s">
         <v>325</v>
       </c>
@@ -17324,11 +17334,11 @@
       </c>
     </row>
     <row r="4" spans="38:55">
-      <c r="AX4" s="43" t="s">
+      <c r="AX4" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
       <c r="BA4" s="31" t="s">
         <v>6</v>
       </c>
@@ -17340,11 +17350,11 @@
       </c>
     </row>
     <row r="5" spans="38:55">
-      <c r="AX5" s="35" t="s">
+      <c r="AX5" s="40" t="s">
         <v>562</v>
       </c>
-      <c r="AY5" s="35"/>
-      <c r="AZ5" s="35"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="40"/>
       <c r="BA5" s="29" t="s">
         <v>326</v>
       </c>
@@ -17356,11 +17366,11 @@
       </c>
     </row>
     <row r="6" spans="38:55">
-      <c r="AX6" s="35" t="s">
+      <c r="AX6" s="40" t="s">
         <v>563</v>
       </c>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
       <c r="BA6" s="29" t="s">
         <v>327</v>
       </c>
@@ -17372,11 +17382,11 @@
       </c>
     </row>
     <row r="7" spans="38:55">
-      <c r="AX7" s="35" t="s">
+      <c r="AX7" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="35"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
       <c r="BA7" s="29" t="s">
         <v>325</v>
       </c>
@@ -17388,11 +17398,11 @@
       </c>
     </row>
     <row r="8" spans="38:55">
-      <c r="AX8" s="35" t="s">
+      <c r="AX8" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="35"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="40"/>
       <c r="BA8" s="29" t="s">
         <v>328</v>
       </c>
@@ -17404,11 +17414,11 @@
       </c>
     </row>
     <row r="9" spans="38:55">
-      <c r="AX9" s="35" t="s">
+      <c r="AX9" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
+      <c r="AY9" s="40"/>
+      <c r="AZ9" s="40"/>
       <c r="BA9" s="29" t="s">
         <v>329</v>
       </c>
@@ -17420,11 +17430,11 @@
       </c>
     </row>
     <row r="10" spans="38:55">
-      <c r="AX10" s="35" t="s">
+      <c r="AX10" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="AY10" s="35"/>
-      <c r="AZ10" s="35"/>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="40"/>
       <c r="BA10" s="29" t="s">
         <v>721</v>
       </c>
@@ -17436,11 +17446,11 @@
       </c>
     </row>
     <row r="11" spans="38:55">
-      <c r="AX11" s="35" t="s">
+      <c r="AX11" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="35"/>
+      <c r="AY11" s="40"/>
+      <c r="AZ11" s="40"/>
       <c r="BA11" s="29" t="s">
         <v>722</v>
       </c>
@@ -17452,11 +17462,11 @@
       </c>
     </row>
     <row r="12" spans="38:55">
-      <c r="AX12" s="35" t="s">
+      <c r="AX12" s="40" t="s">
         <v>569</v>
       </c>
-      <c r="AY12" s="35"/>
-      <c r="AZ12" s="35"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="40"/>
       <c r="BA12" s="29" t="s">
         <v>723</v>
       </c>
@@ -17468,11 +17478,11 @@
       </c>
     </row>
     <row r="13" spans="38:55">
-      <c r="AX13" s="35" t="s">
+      <c r="AX13" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="AY13" s="35"/>
-      <c r="AZ13" s="35"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
       <c r="BA13" s="29" t="s">
         <v>724</v>
       </c>
@@ -17484,11 +17494,11 @@
       </c>
     </row>
     <row r="14" spans="38:55">
-      <c r="AX14" s="35" t="s">
+      <c r="AX14" s="40" t="s">
         <v>571</v>
       </c>
-      <c r="AY14" s="35"/>
-      <c r="AZ14" s="35"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
       <c r="BA14" s="29" t="s">
         <v>725</v>
       </c>
@@ -17503,11 +17513,11 @@
       <c r="AL15" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="AX15" s="35" t="s">
+      <c r="AX15" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="AY15" s="35"/>
-      <c r="AZ15" s="35"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
       <c r="BA15" s="29" t="s">
         <v>330</v>
       </c>
@@ -17519,11 +17529,11 @@
       </c>
     </row>
     <row r="16" spans="38:55">
-      <c r="AX16" s="35" t="s">
+      <c r="AX16" s="40" t="s">
         <v>573</v>
       </c>
-      <c r="AY16" s="35"/>
-      <c r="AZ16" s="35"/>
+      <c r="AY16" s="40"/>
+      <c r="AZ16" s="40"/>
       <c r="BA16" s="29" t="s">
         <v>331</v>
       </c>
@@ -17535,11 +17545,11 @@
       </c>
     </row>
     <row r="17" spans="38:55">
-      <c r="AX17" s="35" t="s">
+      <c r="AX17" s="40" t="s">
         <v>574</v>
       </c>
-      <c r="AY17" s="35"/>
-      <c r="AZ17" s="35"/>
+      <c r="AY17" s="40"/>
+      <c r="AZ17" s="40"/>
       <c r="BA17" s="29" t="s">
         <v>332</v>
       </c>
@@ -17551,11 +17561,11 @@
       </c>
     </row>
     <row r="18" spans="38:55">
-      <c r="AX18" s="35" t="s">
+      <c r="AX18" s="40" t="s">
         <v>575</v>
       </c>
-      <c r="AY18" s="35"/>
-      <c r="AZ18" s="35"/>
+      <c r="AY18" s="40"/>
+      <c r="AZ18" s="40"/>
       <c r="BA18" s="29" t="s">
         <v>325</v>
       </c>
@@ -17567,11 +17577,11 @@
       </c>
     </row>
     <row r="19" spans="38:55">
-      <c r="AX19" s="35" t="s">
+      <c r="AX19" s="40" t="s">
         <v>576</v>
       </c>
-      <c r="AY19" s="35"/>
-      <c r="AZ19" s="35"/>
+      <c r="AY19" s="40"/>
+      <c r="AZ19" s="40"/>
       <c r="BA19" s="29" t="s">
         <v>333</v>
       </c>
@@ -17586,11 +17596,11 @@
       <c r="AL20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AX20" s="35" t="s">
+      <c r="AX20" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="AY20" s="35"/>
-      <c r="AZ20" s="35"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="40"/>
       <c r="BA20" s="29" t="s">
         <v>721</v>
       </c>
@@ -17608,11 +17618,11 @@
       <c r="AM21" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="AX21" s="35" t="s">
+      <c r="AX21" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="35"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="40"/>
       <c r="BA21" s="29" t="s">
         <v>601</v>
       </c>
@@ -17627,11 +17637,11 @@
       <c r="AL22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AX22" s="35" t="s">
+      <c r="AX22" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="40"/>
       <c r="BA22" s="29" t="s">
         <v>726</v>
       </c>
@@ -17649,11 +17659,11 @@
       <c r="AM23" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="AX23" s="35" t="s">
+      <c r="AX23" s="40" t="s">
         <v>580</v>
       </c>
-      <c r="AY23" s="35"/>
-      <c r="AZ23" s="35"/>
+      <c r="AY23" s="40"/>
+      <c r="AZ23" s="40"/>
       <c r="BA23" s="29" t="s">
         <v>727</v>
       </c>
@@ -17668,11 +17678,11 @@
       <c r="AL24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AX24" s="35" t="s">
+      <c r="AX24" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="AY24" s="35"/>
-      <c r="AZ24" s="35"/>
+      <c r="AY24" s="40"/>
+      <c r="AZ24" s="40"/>
       <c r="BA24" s="29" t="s">
         <v>728</v>
       </c>
@@ -17690,11 +17700,11 @@
       <c r="AM25" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="AX25" s="35" t="s">
+      <c r="AX25" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="AY25" s="35"/>
-      <c r="AZ25" s="35"/>
+      <c r="AY25" s="40"/>
+      <c r="AZ25" s="40"/>
       <c r="BA25" s="29" t="s">
         <v>334</v>
       </c>
@@ -17706,11 +17716,11 @@
       </c>
     </row>
     <row r="26" spans="38:55">
-      <c r="AX26" s="39" t="s">
+      <c r="AX26" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="AY26" s="39"/>
-      <c r="AZ26" s="39"/>
+      <c r="AY26" s="42"/>
+      <c r="AZ26" s="42"/>
       <c r="BA26" s="29" t="s">
         <v>6</v>
       </c>
@@ -17722,11 +17732,11 @@
       </c>
     </row>
     <row r="27" spans="38:55">
-      <c r="AX27" s="39" t="s">
+      <c r="AX27" s="42" t="s">
         <v>584</v>
       </c>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="42"/>
       <c r="BA27" s="29" t="s">
         <v>6</v>
       </c>
@@ -17738,11 +17748,11 @@
       </c>
     </row>
     <row r="28" spans="38:55">
-      <c r="AX28" s="39" t="s">
+      <c r="AX28" s="42" t="s">
         <v>585</v>
       </c>
-      <c r="AY28" s="39"/>
-      <c r="AZ28" s="39"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
       <c r="BA28" s="29" t="s">
         <v>729</v>
       </c>
@@ -17754,11 +17764,11 @@
       </c>
     </row>
     <row r="29" spans="38:55">
-      <c r="AX29" s="35" t="s">
+      <c r="AX29" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="AY29" s="35"/>
-      <c r="AZ29" s="35"/>
+      <c r="AY29" s="40"/>
+      <c r="AZ29" s="40"/>
       <c r="BA29" s="29" t="s">
         <v>335</v>
       </c>
@@ -17770,31 +17780,31 @@
       </c>
     </row>
     <row r="30" spans="38:55">
-      <c r="AX30" s="35" t="s">
+      <c r="AX30" s="40" t="s">
         <v>587</v>
       </c>
-      <c r="AY30" s="35"/>
-      <c r="AZ30" s="35"/>
+      <c r="AY30" s="40"/>
+      <c r="AZ30" s="40"/>
       <c r="BA30" s="28"/>
       <c r="BB30" s="28"/>
       <c r="BC30" s="28"/>
     </row>
     <row r="31" spans="38:55">
-      <c r="AX31" s="35" t="s">
+      <c r="AX31" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="AY31" s="35"/>
-      <c r="AZ31" s="35"/>
+      <c r="AY31" s="40"/>
+      <c r="AZ31" s="40"/>
       <c r="BA31" s="28"/>
       <c r="BB31" s="28"/>
       <c r="BC31" s="28"/>
     </row>
     <row r="32" spans="38:55">
-      <c r="AX32" s="35" t="s">
+      <c r="AX32" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="AY32" s="35"/>
-      <c r="AZ32" s="35"/>
+      <c r="AY32" s="40"/>
+      <c r="AZ32" s="40"/>
       <c r="BA32" s="29" t="s">
         <v>730</v>
       </c>
@@ -17806,11 +17816,11 @@
       </c>
     </row>
     <row r="33" spans="50:55">
-      <c r="AX33" s="35" t="s">
+      <c r="AX33" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="AY33" s="35"/>
-      <c r="AZ33" s="35"/>
+      <c r="AY33" s="40"/>
+      <c r="AZ33" s="40"/>
       <c r="BA33" s="29" t="s">
         <v>336</v>
       </c>
@@ -17822,11 +17832,11 @@
       </c>
     </row>
     <row r="34" spans="50:55">
-      <c r="AX34" s="35" t="s">
+      <c r="AX34" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="AY34" s="35"/>
-      <c r="AZ34" s="35"/>
+      <c r="AY34" s="40"/>
+      <c r="AZ34" s="40"/>
       <c r="BA34" s="29" t="s">
         <v>731</v>
       </c>
@@ -17838,11 +17848,11 @@
       </c>
     </row>
     <row r="35" spans="50:55">
-      <c r="AX35" s="35" t="s">
+      <c r="AX35" s="40" t="s">
         <v>590</v>
       </c>
-      <c r="AY35" s="35"/>
-      <c r="AZ35" s="35"/>
+      <c r="AY35" s="40"/>
+      <c r="AZ35" s="40"/>
       <c r="BA35" s="29" t="s">
         <v>732</v>
       </c>
@@ -17854,11 +17864,11 @@
       </c>
     </row>
     <row r="36" spans="50:55">
-      <c r="AX36" s="35" t="s">
+      <c r="AX36" s="40" t="s">
         <v>591</v>
       </c>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="35"/>
+      <c r="AY36" s="40"/>
+      <c r="AZ36" s="40"/>
       <c r="BA36" s="29" t="s">
         <v>291</v>
       </c>
@@ -17870,11 +17880,11 @@
       </c>
     </row>
     <row r="37" spans="50:55">
-      <c r="AX37" s="37" t="s">
+      <c r="AX37" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44"/>
       <c r="BA37" s="30" t="s">
         <v>733</v>
       </c>
@@ -17887,26 +17897,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="AX7:AZ7"/>
-    <mergeCell ref="AX8:AZ8"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX20:AZ20"/>
     <mergeCell ref="AX36:AZ36"/>
     <mergeCell ref="AX37:AZ37"/>
     <mergeCell ref="AX2:AZ2"/>
@@ -17923,6 +17913,26 @@
     <mergeCell ref="AX25:AZ25"/>
     <mergeCell ref="AX26:AZ26"/>
     <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="AX7:AZ7"/>
+    <mergeCell ref="AX8:AZ8"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AX10:AZ10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18485,667 +18495,667 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="40" t="s">
         <v>562</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="40" t="s">
         <v>563</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="40" t="s">
         <v>569</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="40" t="s">
         <v>571</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="40" t="s">
         <v>573</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="40" t="s">
         <v>574</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="40" t="s">
         <v>575</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="40" t="s">
         <v>576</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="40" t="s">
         <v>580</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="40" t="s">
         <v>583</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="40" t="s">
         <v>584</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="40" t="s">
         <v>585</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="40" t="s">
         <v>587</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36" t="s">
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
     </row>
     <row r="49" spans="1:35">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="40" t="s">
         <v>590</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
     </row>
     <row r="50" spans="1:35">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="40" t="s">
         <v>591</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36" t="s">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
     </row>
     <row r="51" spans="1:35">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="38" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="1" t="s">
@@ -22672,34 +22682,32 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="D17:M17"/>
@@ -22716,32 +22724,34 @@
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="D29:M29"/>
     <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26589,14 +26599,20 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="M2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="13:13">
+      <c r="M2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
